--- a/biology/Histoire de la zoologie et de la botanique/Klaus_Peter_Sauer/Klaus_Peter_Sauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Klaus_Peter_Sauer/Klaus_Peter_Sauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klaus Peter Sauer, né le 2 février 1941 à Francfort-sur-le-Main et mort le 12 novembre 2022 à Bonn[1], est un biologiste, évolutionniste et écologiste allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klaus Peter Sauer, né le 2 février 1941 à Francfort-sur-le-Main et mort le 12 novembre 2022 à Bonn, est un biologiste, évolutionniste et écologiste allemand.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son baccalauréat au Liebig-Realgymnasium de Giessen et étudie, de 1962 à 1966, la biologie, la génétique, la chimie et les mathématiques à l’université de Giessen. Il obtient son doctorat en 1969 sous la direction de Wulf Emmo Ankel (1897-1983) avec une thèse intitulée Zur Monotopbindung einheimischer Arten der Gattung Panorpa (Mecoptera) nach Untersuchungen im Freiland und im Laboratorium.
 De 1969 à 1971, il est assistant scientifique à l’université de Gießen, de 1971 à 1979, assistant scientifique de Günther Osche à l’université de Fribourg-en-Brisgau. En 1977, il habilité à enseigner la zoologie à Fribourg et, en 1979, reçoit une chaire sur l’évolution à l’université de Bielefeld. En 1992, il obtient la direction de l’institut pour la biologie évolutive et l'écologie de l’université de Bonn.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Klaus Peter Sauer » (voir la liste des auteurs) (version du 8 décembre 2006)</t>
         </is>
